--- a/ObjectRepositoryLibrary/TestData/RegisterInputs.xlsx
+++ b/ObjectRepositoryLibrary/TestData/RegisterInputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thirumala\PersonalDocs\GlintsMailBoxFrameWork\ObjectRepositoryLibrary\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2D2F38-D3EE-48F2-B2C9-69C7C06D90CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079AC57A-3CDA-48F1-8821-00A0BEA3798D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,10 @@
     <t>SDET Role</t>
   </si>
   <si>
-    <t>KidsIQ_2@outlook.com</t>
-  </si>
-  <si>
     <t>Mob 89340505</t>
+  </si>
+  <si>
+    <t>KidsIQ_3@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,7 +468,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -484,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
